--- a/biology/Zoologie/Hexathelidae/Hexathelidae.xlsx
+++ b/biology/Zoologie/Hexathelidae/Hexathelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hexathelidae sont une famille d'araignées mygalomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hexathelidae sont une famille d'araignées mygalomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Australie, en Nouvelle-Zélande, au Chili et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Australie, en Nouvelle-Zélande, au Chili et en Argentine.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hexathelidae sont des araignées terrestres, qui construisent des toiles typiques en forme de tunnel, qu'elles vont tapisser de soie. À l'entrée du terrier, un tapis de fils irréguliers s'étendra tout autour afin de prévenir l'araignée de l'approche d'une proie éventuelle.
 Il arrive que plusieurs terriers de mygales soient réunis sur une même aire créant ainsi de véritables colonies.
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les araignées, elles ont quatre paires de pattes ambulatoires, une paire de pédipalpes (ou pattes « mâchoires »), deux crochets venimeux (chélicères) s'articulant de bas en haut (orthognathe).
 Elles ont également les deux paires de poumons sur la face ventrale de l'abdomen.
@@ -616,7 +634,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles n'hésitent pas à faire face si elles se sentent menacées ou dérangées. Ce sont de formidables prédateurs, et la puissance de leurs chélicères leur permettent de venir à bout de leurs proies avec une grande facilité.
 Elles s'introduisent dans les maisons et cela conduit parfois à des morsures accidentelles, quand l'araignée trouve refuge dans une chaussure par exemple.
@@ -648,7 +668,9 @@
           <t>Venimosité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hexathelidae sont les mygales venimeuses.
 C'est un venin neurotoxique qui a la particularité d'être particulièrement virulent chez les primates (l'homme et le singe) alors qu'il sera inoffensif sur un lapin.
@@ -681,9 +703,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Trias[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Trias.
 </t>
         </is>
       </c>
@@ -712,10 +736,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille rassemble 45 espèces dans sept genres actuels[1].
-Cette famille a vu sa composition modifiée par Hedin, Derkarabetian, Ramírez, Vink et Bond en 2018[3]. Elle a été séparée en quatre les Hexathelidae proprement dit, les Atracidae, les Macrothelidae et les Porrhothelidae.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille rassemble 45 espèces dans sept genres actuels.
+Cette famille a vu sa composition modifiée par Hedin, Derkarabetian, Ramírez, Vink et Bond en 2018. Elle a été séparée en quatre les Hexathelidae proprement dit, les Atracidae, les Macrothelidae et les Porrhothelidae.
 </t>
         </is>
       </c>
@@ -744,9 +770,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 19.0, 02/02/2018)[4] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 19.0, 02/02/2018) :
 Bymainiella Raven, 1978
 Hexathele Ausserer, 1871
 Mediothele Raven &amp; Platnick, 1978
@@ -754,7 +782,7 @@
 Plesiothele Raven, 1978
 Scotinoecus Simon, 1892
 Teranodes Raven, 1985
-Selon The World Spider Catalog (version 18.5, 2018)[2] :
+Selon The World Spider Catalog (version 18.5, 2018) :
 †Alioatrax Wunderlich, 2017
 †Rosamygale Selden &amp; Gall, 1992</t>
         </is>
@@ -784,7 +812,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Simon, 1892 : Histoire naturelle des araignées. Paris, vol. 1, p. 1-256 (texte intégral).</t>
         </is>
